--- a/data/FOREX_3Q.xlsx
+++ b/data/FOREX_3Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -392,220 +392,616 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Comoros, Union of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep. of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Croatia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao and Sint Maarten</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Czech Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Iran, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>Iraq</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>Jersey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>Jordan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Kazakhstan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -665,66 +1061,312 @@
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -737,9 +1379,63 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -776,30 +1472,66 @@
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -809,1060 +1541,256 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -5962,17 +5890,17 @@
       <c r="AI36" s="22">
         <v>2805.2883396169</v>
       </c>
-      <c r="AJ36" s="22" t="s">
-        <v>126</v>
+      <c r="AJ36" s="22">
+        <v>2807.7251981475001</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6071,16 +5999,16 @@
         <v>133.301774614392</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6185,10 +6113,10 @@
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6293,10 +6221,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6401,10 +6329,10 @@
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6509,10 +6437,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6617,10 +6545,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6725,10 +6653,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6833,10 +6761,10 @@
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -6941,10 +6869,10 @@
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7049,10 +6977,10 @@
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7157,10 +7085,10 @@
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7265,10 +7193,10 @@
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7373,10 +7301,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7481,10 +7409,10 @@
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7589,10 +7517,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7697,10 +7625,10 @@
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7805,10 +7733,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -7913,10 +7841,10 @@
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8021,10 +7949,10 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8129,10 +8057,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8237,10 +8165,10 @@
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8345,10 +8273,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8453,10 +8381,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8561,10 +8489,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8669,10 +8597,10 @@
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8777,10 +8705,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -8885,10 +8813,10 @@
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -8993,10 +8921,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9101,10 +9029,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9209,10 +9137,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9317,10 +9245,10 @@
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9413,22 +9341,22 @@
         <v>58.554051583516703</v>
       </c>
       <c r="AH68" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="AI68" s="22" t="s">
+      <c r="AJ68" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="AJ68" s="22" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9533,10 +9461,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9584,67 +9512,67 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T70" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="U70" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="AJ70" s="22" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9749,10 +9677,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -9857,10 +9785,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -9965,10 +9893,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10063,20 +9991,20 @@
       <c r="AH74" s="22">
         <v>72.761869984337906</v>
       </c>
-      <c r="AI74" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ74" s="22" t="s">
-        <v>226</v>
+      <c r="AI74" s="22">
+        <v>72.627319706729295</v>
+      </c>
+      <c r="AJ74" s="22">
+        <v>73.632631810248697</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10181,10 +10109,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10283,16 +10211,16 @@
         <v>8.2648621842014798</v>
       </c>
       <c r="AJ76" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10397,10 +10325,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10448,67 +10376,67 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="T78" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="V78" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="W78" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="AH78" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI78" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ78" s="22" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10613,10 +10541,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10721,10 +10649,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -10829,10 +10757,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -10925,22 +10853,22 @@
         <v>14112.511532525599</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11045,10 +10973,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11153,10 +11081,10 @@
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11251,20 +11179,20 @@
       <c r="AH85" s="20">
         <v>129.32869650554699</v>
       </c>
-      <c r="AI85" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ85" s="20" t="s">
-        <v>272</v>
+      <c r="AI85" s="20">
+        <v>137.21251979464299</v>
+      </c>
+      <c r="AJ85" s="20">
+        <v>139.772817928237</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11369,10 +11297,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11477,10 +11405,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11585,10 +11513,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11693,10 +11621,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -11801,10 +11729,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -11909,10 +11837,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12011,16 +11939,16 @@
         <v>2042.8635029050899</v>
       </c>
       <c r="AJ92" s="22" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12125,10 +12053,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12233,10 +12161,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12332,19 +12260,19 @@
         <v>209.28972661164499</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12449,10 +12377,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12557,10 +12485,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12665,10 +12593,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -12773,49 +12701,49 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
       </c>
       <c r="E100" s="21">
-        <v>133.60412744634399</v>
+        <v>133.60627415259199</v>
       </c>
       <c r="F100" s="22">
-        <v>135.46645724992101</v>
+        <v>135.461733693079</v>
       </c>
       <c r="G100" s="22">
-        <v>132.36510708704799</v>
+        <v>132.364283429224</v>
       </c>
       <c r="H100" s="22">
-        <v>131.11685481814601</v>
+        <v>131.11926949318899</v>
       </c>
       <c r="I100" s="22">
-        <v>127.368413792152</v>
+        <v>127.375311247681</v>
       </c>
       <c r="J100" s="22">
-        <v>138.72656774101</v>
+        <v>138.72572390543999</v>
       </c>
       <c r="K100" s="22">
-        <v>147.79929392112399</v>
+        <v>147.80322438007499</v>
       </c>
       <c r="L100" s="22">
-        <v>141.774095429722</v>
+        <v>141.776035452531</v>
       </c>
       <c r="M100" s="22">
-        <v>142.75570783332</v>
+        <v>142.76120223044401</v>
       </c>
       <c r="N100" s="22">
-        <v>141.423127927081</v>
+        <v>141.42620538387101</v>
       </c>
       <c r="O100" s="22">
-        <v>141.340092793693</v>
+        <v>141.34241919634599</v>
       </c>
       <c r="P100" s="22">
-        <v>137.780562038222</v>
+        <v>137.77496065589</v>
       </c>
       <c r="Q100" s="22">
         <v>139.75538736665601</v>
@@ -12881,10 +12809,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -12989,10 +12917,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13097,10 +13025,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13205,10 +13133,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13313,10 +13241,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13421,10 +13349,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13523,16 +13451,16 @@
         <v>13884.4274628481</v>
       </c>
       <c r="AJ106" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13637,10 +13565,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -13727,28 +13655,28 @@
         <v>23.7095516996574</v>
       </c>
       <c r="AF108" s="22">
-        <v>21.0228786645831</v>
+        <v>21.151708284814401</v>
       </c>
       <c r="AG108" s="22">
-        <v>20.970914651515798</v>
+        <v>20.970904715606</v>
       </c>
       <c r="AH108" s="22">
-        <v>20.387017262578901</v>
+        <v>20.387004245036799</v>
       </c>
       <c r="AI108" s="22">
-        <v>21.363773408398</v>
+        <v>21.363788958565902</v>
       </c>
       <c r="AJ108" s="22">
-        <v>21.264029178732301</v>
+        <v>22.261110131716599</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -13844,19 +13772,19 @@
         <v>244.51511581133499</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -13943,28 +13871,28 @@
         <v>1.9361409072547899</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -13982,97 +13910,97 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="N111" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="AF111" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG111" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14177,10 +14105,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14279,16 +14207,16 @@
         <v>1158.32539788188</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14393,10 +14321,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14501,10 +14429,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14609,10 +14537,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -14705,22 +14633,22 @@
         <v>50.906091582779801</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -14825,10 +14753,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -14933,10 +14861,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15041,10 +14969,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15149,10 +15077,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15247,20 +15175,20 @@
       <c r="AH122" s="22">
         <v>4063.69552131505</v>
       </c>
-      <c r="AI122" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ122" s="22" t="s">
-        <v>391</v>
+      <c r="AI122" s="22">
+        <v>4014.1563396394399</v>
+      </c>
+      <c r="AJ122" s="22">
+        <v>3987.9187059915198</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15365,10 +15293,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15473,10 +15401,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15581,10 +15509,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -15682,17 +15610,17 @@
       <c r="AI126" s="22">
         <v>89.928260269263504</v>
       </c>
-      <c r="AJ126" s="22" t="s">
-        <v>400</v>
+      <c r="AJ126" s="22">
+        <v>89.336074671130405</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -15785,22 +15713,22 @@
         <v>2053.3918734490398</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -15905,10 +15833,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16013,10 +15941,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16121,10 +16049,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16229,10 +16157,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16337,10 +16265,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16432,23 +16360,23 @@
       <c r="AG133" s="20">
         <v>49.5950329713313</v>
       </c>
-      <c r="AH133" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI133" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ133" s="20" t="s">
-        <v>420</v>
+      <c r="AH133" s="20">
+        <v>50.164609288300198</v>
+      </c>
+      <c r="AI133" s="20">
+        <v>49.7952909882951</v>
+      </c>
+      <c r="AJ133" s="20">
+        <v>49.714972714918098</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16553,10 +16481,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -16655,16 +16583,16 @@
         <v>578.76436344373303</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -16769,10 +16697,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -16877,10 +16805,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -16985,10 +16913,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17093,10 +17021,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17201,10 +17129,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17309,10 +17237,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17410,17 +17338,17 @@
       <c r="AI142" s="22">
         <v>4.9434083554872199</v>
       </c>
-      <c r="AJ142" s="22" t="s">
-        <v>440</v>
+      <c r="AJ142" s="22">
+        <v>4.9108555714675397</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17525,10 +17453,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -17633,10 +17561,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -17741,10 +17669,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -17849,10 +17777,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -17957,10 +17885,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18065,10 +17993,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18173,10 +18101,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18281,10 +18209,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18389,10 +18317,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18497,10 +18425,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -18590,25 +18518,25 @@
         <v>28.732635763306298</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -18713,10 +18641,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -18821,10 +18749,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -18929,10 +18857,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19037,10 +18965,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19139,16 +19067,16 @@
         <v>14893.1511944412</v>
       </c>
       <c r="AJ158" s="22" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19253,10 +19181,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19361,10 +19289,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19456,23 +19384,23 @@
       <c r="AG161" s="20">
         <v>11.3285967178996</v>
       </c>
-      <c r="AH161" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="AI161" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ161" s="20" t="s">
-        <v>486</v>
+      <c r="AH161" s="20">
+        <v>11.457218008964</v>
+      </c>
+      <c r="AI161" s="20">
+        <v>11.3802211737791</v>
+      </c>
+      <c r="AJ161" s="20">
+        <v>11.3327436264636</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19532,55 +19460,55 @@
         <v>34186.747835284703</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -19685,10 +19613,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -19793,10 +19721,10 @@
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -19886,25 +19814,25 @@
         <v>268.47785227166298</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20009,10 +19937,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20117,10 +20045,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20225,10 +20153,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20321,22 +20249,22 @@
         <v>539.68676880953205</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20441,10 +20369,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -20549,10 +20477,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -20657,10 +20585,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -20723,52 +20651,52 @@
         <v>609.02699391810199</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -20873,10 +20801,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -20981,10 +20909,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21073,26 +21001,26 @@
       <c r="AF176" s="22">
         <v>3310.4064459001302</v>
       </c>
-      <c r="AG176" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="AH176" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="AI176" s="22" t="s">
-        <v>553</v>
+      <c r="AG176" s="22">
+        <v>3257.5002231400099</v>
+      </c>
+      <c r="AH176" s="22">
+        <v>3279.3652539075001</v>
+      </c>
+      <c r="AI176" s="22">
+        <v>3236.0403722835299</v>
       </c>
       <c r="AJ176" s="22" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21197,10 +21125,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21305,10 +21233,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21413,10 +21341,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -21514,17 +21442,17 @@
       <c r="AI180" s="22">
         <v>3.1759949984532398</v>
       </c>
-      <c r="AJ180" s="22" t="s">
-        <v>563</v>
+      <c r="AJ180" s="22">
+        <v>3.1983405801376801</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -21629,10 +21557,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -21737,10 +21665,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -21839,16 +21767,16 @@
         <v>12.470272813854301</v>
       </c>
       <c r="AJ183" s="20" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -21953,10 +21881,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22061,10 +21989,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22169,10 +22097,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22277,10 +22205,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22385,10 +22313,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -22486,17 +22414,17 @@
       <c r="AI189" s="20">
         <v>60.496937113617001</v>
       </c>
-      <c r="AJ189" s="20" t="s">
-        <v>583</v>
+      <c r="AJ189" s="20">
+        <v>62.554846583521503</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -22601,10 +22529,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -22703,16 +22631,16 @@
         <v>158.28669969061201</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -22772,55 +22700,55 @@
         <v>134693.395297546</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -22918,17 +22846,17 @@
       <c r="AI193" s="20">
         <v>32632.278933991602</v>
       </c>
-      <c r="AJ193" s="20" t="s">
-        <v>607</v>
+      <c r="AJ193" s="20">
+        <v>32393.599377460701</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -22997,46 +22925,46 @@
         <v>298.32118845364101</v>
       </c>
       <c r="Z194" s="22">
-        <v>785.42316880179999</v>
+        <v>795.20098983060302</v>
       </c>
       <c r="AA194" s="22">
-        <v>836.57004916536096</v>
+        <v>835.70662198658204</v>
       </c>
       <c r="AB194" s="22">
-        <v>834.11147010551895</v>
+        <v>846.28925668976399</v>
       </c>
       <c r="AC194" s="22">
-        <v>900.54675140801999</v>
+        <v>911.68526659287704</v>
       </c>
       <c r="AD194" s="22">
-        <v>1013.75007738288</v>
+        <v>1035.8987763187799</v>
       </c>
       <c r="AE194" s="22">
-        <v>1152.13027823585</v>
+        <v>1145.7655938134301</v>
       </c>
       <c r="AF194" s="22">
-        <v>1169.3779720539901</v>
+        <v>963.53960378214504</v>
       </c>
       <c r="AG194" s="22">
-        <v>1258.2603035746299</v>
+        <v>1184.7854277061199</v>
       </c>
       <c r="AH194" s="22">
-        <v>1329.99740390897</v>
+        <v>1342.2646472311701</v>
       </c>
       <c r="AI194" s="22">
-        <v>1553.5624721747899</v>
-      </c>
-      <c r="AJ194" s="22" t="s">
-        <v>610</v>
+        <v>1628.65531679882</v>
+      </c>
+      <c r="AJ194" s="22">
+        <v>1332.4133336505699</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23134,80 +23062,80 @@
       <c r="AI195" s="20">
         <v>23.664196210699501</v>
       </c>
-      <c r="AJ195" s="20" t="s">
-        <v>613</v>
+      <c r="AJ195" s="20">
+        <v>23.335865431851701</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="Y196" s="22">
         <v>4.1814110457553504</v>
@@ -23242,17 +23170,17 @@
       <c r="AI196" s="22">
         <v>123.509132304294</v>
       </c>
-      <c r="AJ196" s="22" t="s">
-        <v>636</v>
+      <c r="AJ196" s="22">
+        <v>152.088263985791</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23357,10 +23285,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -23465,10 +23393,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
